--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H2">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I2">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J2">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N2">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O2">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P2">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q2">
-        <v>0.383081518908</v>
+        <v>0.11087654655925</v>
       </c>
       <c r="R2">
-        <v>1.532326075632</v>
+        <v>0.443506186237</v>
       </c>
       <c r="S2">
-        <v>0.001792596131421489</v>
+        <v>0.0001673014353903501</v>
       </c>
       <c r="T2">
-        <v>0.0009224091149096634</v>
+        <v>7.683321547662005E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H3">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I3">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J3">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.145263</v>
       </c>
       <c r="O3">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P3">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q3">
-        <v>0.09217721770200001</v>
+        <v>0.0371909353645</v>
       </c>
       <c r="R3">
-        <v>0.5530633062120001</v>
+        <v>0.223145612187</v>
       </c>
       <c r="S3">
-        <v>0.000431335148531361</v>
+        <v>5.611734007845951E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003329256369677153</v>
+        <v>3.865784838154243E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H4">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I4">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J4">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N4">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O4">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P4">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q4">
-        <v>36.18084767904001</v>
+        <v>21.3548037422565</v>
       </c>
       <c r="R4">
-        <v>217.0850860742401</v>
+        <v>128.128822453539</v>
       </c>
       <c r="S4">
-        <v>0.1693050809808795</v>
+        <v>0.03222222759841789</v>
       </c>
       <c r="T4">
-        <v>0.1306779707597414</v>
+        <v>0.02219709607179559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H5">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I5">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J5">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N5">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O5">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P5">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q5">
-        <v>0.360727767873</v>
+        <v>0.15091127776</v>
       </c>
       <c r="R5">
-        <v>1.442911071492</v>
+        <v>0.60364511104</v>
       </c>
       <c r="S5">
-        <v>0.001687993727885223</v>
+        <v>0.0002277097742429054</v>
       </c>
       <c r="T5">
-        <v>0.0008685842690494871</v>
+        <v>0.0001045757563867668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H6">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I6">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J6">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N6">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O6">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P6">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q6">
-        <v>0.307450296756</v>
+        <v>37.85287374574233</v>
       </c>
       <c r="R6">
-        <v>1.844701780536</v>
+        <v>227.117242474454</v>
       </c>
       <c r="S6">
-        <v>0.001438686507613941</v>
+        <v>0.057116137793201</v>
       </c>
       <c r="T6">
-        <v>0.001110448855316052</v>
+        <v>0.03934589543734236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H7">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I7">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J7">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N7">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O7">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P7">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q7">
-        <v>48.435839326296</v>
+        <v>1.850624302783333</v>
       </c>
       <c r="R7">
-        <v>290.615035957776</v>
+        <v>11.1037458167</v>
       </c>
       <c r="S7">
-        <v>0.2266512319518158</v>
+        <v>0.002792403910762747</v>
       </c>
       <c r="T7">
-        <v>0.1749405445487115</v>
+        <v>0.001923618027001391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>2.01084</v>
       </c>
       <c r="I8">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J8">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N8">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O8">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P8">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q8">
-        <v>0.13488312552</v>
+        <v>0.09675927481999999</v>
       </c>
       <c r="R8">
-        <v>0.80929875312</v>
+        <v>0.58055564892</v>
       </c>
       <c r="S8">
-        <v>0.0006311736720957792</v>
+        <v>0.0001459999077087494</v>
       </c>
       <c r="T8">
-        <v>0.0004871708172524711</v>
+        <v>0.0001005757273604362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.01084</v>
       </c>
       <c r="I9">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J9">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.145263</v>
       </c>
       <c r="O9">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P9">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q9">
         <v>0.03245562788</v>
@@ -1013,10 +1013,10 @@
         <v>0.29210065092</v>
       </c>
       <c r="S9">
-        <v>0.0001518732439674693</v>
+        <v>4.897224254651058E-05</v>
       </c>
       <c r="T9">
-        <v>0.00017583483513359</v>
+        <v>5.060365097366257E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.01084</v>
       </c>
       <c r="I10">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J10">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N10">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O10">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P10">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q10">
-        <v>12.7392880576</v>
+        <v>18.63581964036</v>
       </c>
       <c r="R10">
-        <v>114.6535925184</v>
+        <v>167.72237676324</v>
       </c>
       <c r="S10">
-        <v>0.05961237324685995</v>
+        <v>0.02811955704123434</v>
       </c>
       <c r="T10">
-        <v>0.06901763304686399</v>
+        <v>0.02905630161202425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.01084</v>
       </c>
       <c r="I11">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J11">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N11">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O11">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P11">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q11">
-        <v>0.12701236262</v>
+        <v>0.1316966144</v>
       </c>
       <c r="R11">
-        <v>0.7620741757199999</v>
+        <v>0.7901796863999999</v>
       </c>
       <c r="S11">
-        <v>0.0005943431323033749</v>
+        <v>0.0001987168008826418</v>
       </c>
       <c r="T11">
-        <v>0.0004587431990488517</v>
+        <v>0.0001368910919271283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>2.01084</v>
       </c>
       <c r="I12">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J12">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N12">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O12">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P12">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q12">
-        <v>0.1082533479733333</v>
+        <v>33.03328546162666</v>
       </c>
       <c r="R12">
-        <v>0.9742801317599999</v>
+        <v>297.29956915464</v>
       </c>
       <c r="S12">
-        <v>0.0005065619801852807</v>
+        <v>0.04984386910387829</v>
       </c>
       <c r="T12">
-        <v>0.000586484096500253</v>
+        <v>0.05150431395732153</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.01084</v>
       </c>
       <c r="I13">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J13">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N13">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O13">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P13">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q13">
-        <v>17.05427454224</v>
+        <v>1.614994974666667</v>
       </c>
       <c r="R13">
-        <v>153.48847088016</v>
+        <v>14.534954772</v>
       </c>
       <c r="S13">
-        <v>0.07980397137341769</v>
+        <v>0.002436863212235341</v>
       </c>
       <c r="T13">
-        <v>0.09239493266145224</v>
+        <v>0.002518042242917502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.392014</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H14">
-        <v>1.176042</v>
+        <v>1.125265</v>
       </c>
       <c r="I14">
-        <v>0.08263963491450477</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J14">
-        <v>0.09540137966884249</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N14">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O14">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P14">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q14">
-        <v>0.078886545276</v>
+        <v>0.05414643899083333</v>
       </c>
       <c r="R14">
-        <v>0.473319271656</v>
+        <v>0.324878633945</v>
       </c>
       <c r="S14">
-        <v>0.0003691426208345092</v>
+        <v>8.170147110057781E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002849223917682315</v>
+        <v>5.628212381305387E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.392014</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H15">
-        <v>1.176042</v>
+        <v>1.125265</v>
       </c>
       <c r="I15">
-        <v>0.08263963491450477</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J15">
-        <v>0.09540137966884249</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.145263</v>
       </c>
       <c r="O15">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P15">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q15">
-        <v>0.018981709894</v>
+        <v>0.01816215218833333</v>
       </c>
       <c r="R15">
-        <v>0.170835389046</v>
+        <v>0.163459369695</v>
       </c>
       <c r="S15">
-        <v>8.882323485806458E-05</v>
+        <v>2.740484101624158E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001028371979770531</v>
+        <v>2.831777630884527E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.392014</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H16">
-        <v>1.176042</v>
+        <v>1.125265</v>
       </c>
       <c r="I16">
-        <v>0.08263963491450477</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J16">
-        <v>0.09540137966884249</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N16">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O16">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P16">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q16">
-        <v>7.450586722880002</v>
+        <v>10.428594809935</v>
       </c>
       <c r="R16">
-        <v>67.05528050592001</v>
+        <v>93.85735328941499</v>
       </c>
       <c r="S16">
-        <v>0.03486436248432678</v>
+        <v>0.01573568924131435</v>
       </c>
       <c r="T16">
-        <v>0.04036503908998232</v>
+        <v>0.01625989100746677</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.392014</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H17">
-        <v>1.176042</v>
+        <v>1.125265</v>
       </c>
       <c r="I17">
-        <v>0.08263963491450477</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J17">
-        <v>0.09540137966884249</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N17">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O17">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P17">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q17">
-        <v>0.074283320881</v>
+        <v>0.07369735573333332</v>
       </c>
       <c r="R17">
-        <v>0.4456999252859999</v>
+        <v>0.4421841344</v>
       </c>
       <c r="S17">
-        <v>0.0003476022388655118</v>
+        <v>0.0001112018166264874</v>
       </c>
       <c r="T17">
-        <v>0.0002682964677924697</v>
+        <v>7.660418260894953E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.392014</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H18">
-        <v>1.176042</v>
+        <v>1.125265</v>
       </c>
       <c r="I18">
-        <v>0.08263963491450477</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J18">
-        <v>0.09540137966884249</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N18">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O18">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P18">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q18">
-        <v>0.06331209039866667</v>
+        <v>18.48540906535444</v>
       </c>
       <c r="R18">
-        <v>0.5698088135880001</v>
+        <v>166.36868158819</v>
       </c>
       <c r="S18">
-        <v>0.0002962633348755037</v>
+        <v>0.02789260277653896</v>
       </c>
       <c r="T18">
-        <v>0.0003430058730761028</v>
+        <v>0.02882178683793112</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.392014</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H19">
-        <v>1.176042</v>
+        <v>1.125265</v>
       </c>
       <c r="I19">
-        <v>0.08263963491450477</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J19">
-        <v>0.09540137966884249</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N19">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O19">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P19">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q19">
-        <v>9.974211345112</v>
+        <v>0.9037503332777777</v>
       </c>
       <c r="R19">
-        <v>89.76790210600799</v>
+        <v>8.1337529995</v>
       </c>
       <c r="S19">
-        <v>0.04667344100074441</v>
+        <v>0.001363667364144338</v>
       </c>
       <c r="T19">
-        <v>0.05403727864824633</v>
+        <v>0.001409095106759644</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9108849999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H20">
-        <v>2.732655</v>
+        <v>19.359529</v>
       </c>
       <c r="I20">
-        <v>0.1920217233290104</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J20">
-        <v>0.2216749547711398</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N20">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O20">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P20">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q20">
-        <v>0.18330103209</v>
+        <v>0.9315579493628332</v>
       </c>
       <c r="R20">
-        <v>1.09980619254</v>
+        <v>5.589347696177</v>
       </c>
       <c r="S20">
-        <v>0.0008577409892984482</v>
+        <v>0.001405626229478654</v>
       </c>
       <c r="T20">
-        <v>0.0006620465922793716</v>
+        <v>0.0009683011629619749</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9108849999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H21">
-        <v>2.732655</v>
+        <v>19.359529</v>
       </c>
       <c r="I21">
-        <v>0.1920217233290104</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J21">
-        <v>0.2216749547711398</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.145263</v>
       </c>
       <c r="O21">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P21">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q21">
-        <v>0.044105962585</v>
+        <v>0.3124692512363333</v>
       </c>
       <c r="R21">
-        <v>0.396953663265</v>
+        <v>2.812223261127</v>
       </c>
       <c r="S21">
-        <v>0.0002063899561844428</v>
+        <v>0.0004714843298194811</v>
       </c>
       <c r="T21">
-        <v>0.0002389528462741842</v>
+        <v>0.0004871908498590135</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9108849999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H22">
-        <v>2.732655</v>
+        <v>19.359529</v>
       </c>
       <c r="I22">
-        <v>0.1920217233290104</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J22">
-        <v>0.2216749547711398</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N22">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O22">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P22">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q22">
-        <v>17.3122074392</v>
+        <v>179.417900363191</v>
       </c>
       <c r="R22">
-        <v>155.8098669528</v>
+        <v>1614.761103268719</v>
       </c>
       <c r="S22">
-        <v>0.08101094558239247</v>
+        <v>0.2707233693416335</v>
       </c>
       <c r="T22">
-        <v>0.0937923355581141</v>
+        <v>0.2797419554468432</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9108849999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H23">
-        <v>2.732655</v>
+        <v>19.359529</v>
       </c>
       <c r="I23">
-        <v>0.1920217233290104</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J23">
-        <v>0.2216749547711398</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N23">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O23">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P23">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q23">
-        <v>0.1726049649775</v>
+        <v>1.267920085973333</v>
       </c>
       <c r="R23">
-        <v>1.035629789865</v>
+        <v>7.607520515839999</v>
       </c>
       <c r="S23">
-        <v>0.0008076896879933157</v>
+        <v>0.001913162494019777</v>
       </c>
       <c r="T23">
-        <v>0.000623414541483579</v>
+        <v>0.001317930349508119</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9108849999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H24">
-        <v>2.732655</v>
+        <v>19.359529</v>
       </c>
       <c r="I24">
-        <v>0.1920217233290104</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J24">
-        <v>0.2216749547711398</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N24">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O24">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P24">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q24">
-        <v>0.1471121782966666</v>
+        <v>318.0306975491037</v>
       </c>
       <c r="R24">
-        <v>1.32400960467</v>
+        <v>2862.276277941934</v>
       </c>
       <c r="S24">
-        <v>0.0006883984444128864</v>
+        <v>0.4798759868456643</v>
       </c>
       <c r="T24">
-        <v>0.0007970095575589797</v>
+        <v>0.4958620574893431</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9108849999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H25">
-        <v>2.732655</v>
+        <v>19.359529</v>
       </c>
       <c r="I25">
-        <v>0.1920217233290104</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J25">
-        <v>0.2216749547711398</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N25">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O25">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P25">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q25">
-        <v>23.17610978458</v>
+        <v>15.54849816341111</v>
       </c>
       <c r="R25">
-        <v>208.58498806122</v>
+        <v>139.9364834707</v>
       </c>
       <c r="S25">
-        <v>0.1084505586687289</v>
+        <v>0.02346110283578169</v>
       </c>
       <c r="T25">
-        <v>0.1255611956754296</v>
+        <v>0.02424266069154504</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.8668149999999999</v>
+        <v>0.02954366666666667</v>
       </c>
       <c r="H26">
-        <v>2.600445</v>
+        <v>0.088631</v>
       </c>
       <c r="I26">
-        <v>0.1827314206595082</v>
+        <v>0.003561124252282336</v>
       </c>
       <c r="J26">
-        <v>0.2109499837190705</v>
+        <v>0.003674522336142324</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N26">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O26">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P26">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q26">
-        <v>0.17443264971</v>
+        <v>0.004264820317166667</v>
       </c>
       <c r="R26">
-        <v>1.04659589826</v>
+        <v>0.025588921903</v>
       </c>
       <c r="S26">
-        <v>0.0008162421772657737</v>
+        <v>6.435180233203123E-06</v>
       </c>
       <c r="T26">
-        <v>0.0006300157724483809</v>
+        <v>4.43303658753696E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.8668149999999999</v>
+        <v>0.02954366666666667</v>
       </c>
       <c r="H27">
-        <v>2.600445</v>
+        <v>0.088631</v>
       </c>
       <c r="I27">
-        <v>0.1827314206595082</v>
+        <v>0.003561124252282336</v>
       </c>
       <c r="J27">
-        <v>0.2109499837190705</v>
+        <v>0.003674522336142324</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.145263</v>
       </c>
       <c r="O27">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P27">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q27">
-        <v>0.04197204911499999</v>
+        <v>0.001430533883666667</v>
       </c>
       <c r="R27">
-        <v>0.377748442035</v>
+        <v>0.012874804953</v>
       </c>
       <c r="S27">
-        <v>0.0001964044965830129</v>
+        <v>2.15853018098893E-06</v>
       </c>
       <c r="T27">
-        <v>0.0002273919445848345</v>
+        <v>2.230437125503117E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.8668149999999999</v>
+        <v>0.02954366666666667</v>
       </c>
       <c r="H28">
-        <v>2.600445</v>
+        <v>0.088631</v>
       </c>
       <c r="I28">
-        <v>0.1827314206595082</v>
+        <v>0.003561124252282336</v>
       </c>
       <c r="J28">
-        <v>0.2109499837190705</v>
+        <v>0.003674522336142324</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N28">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O28">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P28">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q28">
-        <v>16.4746165448</v>
+        <v>0.821403657449</v>
       </c>
       <c r="R28">
-        <v>148.2715489032</v>
+        <v>7.392632917040999</v>
       </c>
       <c r="S28">
-        <v>0.07709151297364818</v>
+        <v>0.001239414602913032</v>
       </c>
       <c r="T28">
-        <v>0.08925451988649134</v>
+        <v>0.001280703123160133</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>27</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.8668149999999999</v>
+        <v>0.02954366666666667</v>
       </c>
       <c r="H29">
-        <v>2.600445</v>
+        <v>0.088631</v>
       </c>
       <c r="I29">
-        <v>0.1827314206595082</v>
+        <v>0.003561124252282336</v>
       </c>
       <c r="J29">
-        <v>0.2109499837190705</v>
+        <v>0.003674522336142324</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N29">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O29">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P29">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q29">
-        <v>0.1642540745725</v>
+        <v>0.005804739626666666</v>
       </c>
       <c r="R29">
-        <v>0.9855244474349998</v>
+        <v>0.03482843776</v>
       </c>
       <c r="S29">
-        <v>0.0007686124339493194</v>
+        <v>8.758761900016623E-06</v>
       </c>
       <c r="T29">
-        <v>0.0005932527989549598</v>
+        <v>6.033694559782634E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.8668149999999999</v>
+        <v>0.02954366666666667</v>
       </c>
       <c r="H30">
-        <v>2.600445</v>
+        <v>0.088631</v>
       </c>
       <c r="I30">
-        <v>0.1827314206595082</v>
+        <v>0.003561124252282336</v>
       </c>
       <c r="J30">
-        <v>0.2109499837190705</v>
+        <v>0.003674522336142324</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N30">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O30">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P30">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q30">
-        <v>0.1399946676366667</v>
+        <v>1.455995068602889</v>
       </c>
       <c r="R30">
-        <v>1.25995200873</v>
+        <v>13.103955617426</v>
       </c>
       <c r="S30">
-        <v>0.0006550926819453125</v>
+        <v>0.00219694852029293</v>
       </c>
       <c r="T30">
-        <v>0.0007584490244492851</v>
+        <v>0.002270135291893619</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.8668149999999999</v>
+        <v>0.02954366666666667</v>
       </c>
       <c r="H31">
-        <v>2.600445</v>
+        <v>0.088631</v>
       </c>
       <c r="I31">
-        <v>0.1827314206595082</v>
+        <v>0.003561124252282336</v>
       </c>
       <c r="J31">
-        <v>0.2109499837190705</v>
+        <v>0.003674522336142324</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N31">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O31">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P31">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q31">
-        <v>22.05481438702</v>
+        <v>0.07118349525555555</v>
       </c>
       <c r="R31">
-        <v>198.49332948318</v>
+        <v>0.6406514573000001</v>
       </c>
       <c r="S31">
-        <v>0.1032035558961166</v>
+        <v>0.0001074086567621643</v>
       </c>
       <c r="T31">
-        <v>0.1194863542921417</v>
+        <v>0.0001109867528157492</v>
       </c>
     </row>
   </sheetData>
